--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\eps-us-2.1.1.2\InputData\land\BLAPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Oregon\Oregon_EPS\InputData\land\BLAPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6D9893-D27D-4154-B3DC-C1FC1FDDB452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C44464-7DB5-4CA6-BA0F-34FD57726FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6480" windowWidth="15990" windowHeight="24990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="1305" windowWidth="19290" windowHeight="16095" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,15 @@
     <definedName name="CO2_C">[1]Lookups!$L$4</definedName>
     <definedName name="FCFchoice">[1]Control!$A$11</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -127,9 +130,6 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Rebound Emis Factor (dimensionless)</t>
-  </si>
-  <si>
     <t>Emissions* (MMTCO2E)</t>
   </si>
   <si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>However, the California EPS uses a number of around 4.5 MMTCO2e for 2020, so some discrepenct on methodology exists between CA and US/OR.</t>
+  </si>
+  <si>
+    <t>Rebound Emis Factor</t>
   </si>
 </sst>
 </file>
@@ -292,7 +295,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -531,7 +534,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -589,11 +592,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -614,17 +617,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1112,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1132,72 +1138,72 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,17 +1213,17 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1252,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1378,7 +1384,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="15">
         <v>-97.24148421075067</v>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="4" spans="1:32" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="15">
         <v>-24.789471524053738</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="5" spans="1:32" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="15">
         <v>-4.9715374481820902</v>
@@ -1672,7 +1678,7 @@
     </row>
     <row r="6" spans="1:32" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="15">
         <v>-16.231648847384765</v>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="7" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="15">
         <v>-5.0449509283146572</v>
@@ -1868,7 +1874,7 @@
     </row>
     <row r="8" spans="1:32" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="15">
         <v>-32.748369551135852</v>
@@ -1966,7 +1972,7 @@
     </row>
     <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="15">
         <v>-13.45550591167957</v>
@@ -2064,7 +2070,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="15">
         <v>-0.52438993551999991</v>
@@ -2162,7 +2168,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="15">
         <v>-0.2738550352418917</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="15">
         <v>-2.1649680919996018E-2</v>
@@ -2358,7 +2364,7 @@
     </row>
     <row r="13" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="15">
         <v>-0.11180551586586977</v>
@@ -2456,7 +2462,7 @@
     </row>
     <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="15">
         <v>-0.11132961357536142</v>
@@ -2554,7 +2560,7 @@
     </row>
     <row r="15" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="15">
         <v>-2.9070224880664491E-2</v>
@@ -2652,7 +2658,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="15">
         <v>0</v>
@@ -2946,7 +2952,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="15">
         <v>5.9904122665982301E-2</v>
@@ -3044,7 +3050,7 @@
     </row>
     <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="20">
         <v>-0.70489217893843681</v>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="21" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="22">
         <v>-98.684717237785023</v>
@@ -3240,7 +3246,7 @@
     </row>
     <row r="22" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="8"/>
@@ -3344,7 +3350,7 @@
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3476,7 +3482,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="15">
         <v>-26.520404784750184</v>
@@ -3574,7 +3580,7 @@
     </row>
     <row r="28" spans="1:32" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="15">
         <v>-6.7607649611055649</v>
@@ -3672,7 +3678,7 @@
     </row>
     <row r="29" spans="1:32" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="15">
         <v>-1.3558738495042064</v>
@@ -3770,7 +3776,7 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="15">
         <v>-4.4268133220140271</v>
@@ -3868,7 +3874,7 @@
     </row>
     <row r="31" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="15">
         <v>-1.3758957077221794</v>
@@ -3966,7 +3972,7 @@
     </row>
     <row r="32" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="15">
         <v>-8.9313735139461414</v>
@@ -4064,7 +4070,7 @@
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="15">
         <v>-3.6696834304580648</v>
@@ -4162,7 +4168,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="15">
         <v>-0.14301543695999999</v>
@@ -4260,7 +4266,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="15">
         <v>-7.4687736884152284E-2</v>
@@ -4358,7 +4364,7 @@
     </row>
     <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="15">
         <v>-5.9044584327261869E-3</v>
@@ -4456,7 +4462,7 @@
     </row>
     <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="15">
         <v>-3.0492413417964485E-2</v>
@@ -4554,7 +4560,7 @@
     </row>
     <row r="38" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="15">
         <v>-3.0362621884189478E-2</v>
@@ -4652,7 +4658,7 @@
     </row>
     <row r="39" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="15">
         <v>-7.9282431492721343E-3</v>
@@ -4750,7 +4756,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="15">
         <v>0</v>
@@ -5044,7 +5050,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="15">
         <v>1.6337487999813355E-2</v>
@@ -5142,7 +5148,7 @@
     </row>
     <row r="44" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="15">
         <v>-0.19224332152866458</v>
@@ -5240,7 +5246,7 @@
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="26">
         <v>-26.914013792123189</v>
@@ -5338,7 +5344,7 @@
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -5421,10 +5427,10 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -5433,13 +5439,13 @@
         <v>3.6669999999999998</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -5548,7 +5554,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4">
         <f>'EPA LULUCF Model OR Estimates'!$AC$21</f>
@@ -5563,7 +5569,7 @@
         <v>-57.32878718322263</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="D4:AI4" si="0">-$D$20</f>
+        <f t="shared" ref="E4:AI4" si="0">-$D$20</f>
         <v>-60.848991139240496</v>
       </c>
       <c r="F4" s="4">
@@ -5692,30 +5698,30 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="35"/>
       <c r="C11" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>69</v>
-      </c>
       <c r="F11" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="36">
         <v>532.4</v>
@@ -5763,7 +5769,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -5777,18 +5783,18 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="37">
-        <f>C12*$G$1</f>
+        <f t="shared" ref="C16:E17" si="2">C12*$G$1</f>
         <v>1952.3107999999997</v>
       </c>
       <c r="D16" s="37">
-        <f>D12*$G$1</f>
+        <f t="shared" si="2"/>
         <v>321.22919999999993</v>
       </c>
       <c r="E16" s="48">
-        <f>E12*$G$1</f>
+        <f t="shared" si="2"/>
         <v>2063.4209000000001</v>
       </c>
       <c r="F16" s="51">
@@ -5807,15 +5813,15 @@
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="49">
-        <f>C13*$G$1</f>
+        <f t="shared" si="2"/>
         <v>2399.3180999999995</v>
       </c>
       <c r="D17" s="49">
-        <f>D13*$G$1</f>
+        <f t="shared" si="2"/>
         <v>398.23619999999994</v>
       </c>
       <c r="E17" s="50">
-        <f>E13*$G$1</f>
+        <f t="shared" si="2"/>
         <v>2479.6253999999999</v>
       </c>
       <c r="F17" s="52">
@@ -5832,7 +5838,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39">
@@ -5844,7 +5850,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38">
@@ -5898,8 +5904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5908,8 +5914,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>28</v>
+      <c r="B1" s="53" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5989,7 +5995,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="4">
-        <v>3.6402210019859555E-4</v>
+        <v>6.6417418588509813E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5997,7 +6003,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4">
-        <v>3.2648363085577063E-5</v>
+        <v>3.8529345186784264E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6021,7 +6027,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7140,139 +7146,139 @@
       </c>
       <c r="B11" s="4">
         <f>B$2*-'data from RPEpUACE'!$B11</f>
-        <v>18306081437.880825</v>
+        <v>33400243361.921333</v>
       </c>
       <c r="C11" s="4">
         <f>C$2*-'data from RPEpUACE'!$B11</f>
-        <v>19587513475.077908</v>
+        <v>35738271958.559097</v>
       </c>
       <c r="D11" s="4">
         <f>D$2*-'data from RPEpUACE'!$B11</f>
-        <v>20868945512.275028</v>
+        <v>38076300555.196938</v>
       </c>
       <c r="E11" s="4">
         <f>E$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="F11" s="4">
         <f>F$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="G11" s="4">
         <f>G$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="H11" s="4">
         <f>H$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="I11" s="4">
         <f>I$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="J11" s="4">
         <f>J$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="K11" s="4">
         <f>K$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="L11" s="4">
         <f>L$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="M11" s="4">
         <f>M$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="N11" s="4">
         <f>N$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="O11" s="4">
         <f>O$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="P11" s="4">
         <f>P$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="Q11" s="4">
         <f>Q$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="R11" s="4">
         <f>R$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="S11" s="4">
         <f>S$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="T11" s="4">
         <f>T$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="U11" s="4">
         <f>U$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="V11" s="4">
         <f>V$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="W11" s="4">
         <f>W$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="X11" s="4">
         <f>X$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="Y11" s="4">
         <f>Y$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="Z11" s="4">
         <f>Z$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="AA11" s="4">
         <f>AA$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="AB11" s="4">
         <f>AB$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="AC11" s="4">
         <f>AC$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="AD11" s="4">
         <f>AD$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="AE11" s="4">
         <f>AE$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="AF11" s="4">
         <f>AF$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="AG11" s="4">
         <f>AG$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="AH11" s="4">
         <f>AH$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
       <c r="AI11" s="4">
         <f>AI$2*-'data from RPEpUACE'!$B11</f>
-        <v>22150377549.472057</v>
+        <v>40414329151.83461</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -7281,139 +7287,139 @@
       </c>
       <c r="B12" s="4">
         <f>B$2*-'data from RPEpUACE'!$B12</f>
-        <v>1641833265.4309039</v>
+        <v>1937578323.8234708</v>
       </c>
       <c r="C12" s="4">
         <f>C$2*-'data from RPEpUACE'!$B12</f>
-        <v>1756762162.3222647</v>
+        <v>2073209477.1727724</v>
       </c>
       <c r="D12" s="4">
         <f>D$2*-'data from RPEpUACE'!$B12</f>
-        <v>1871691059.2136292</v>
+        <v>2208840630.5220785</v>
       </c>
       <c r="E12" s="4">
         <f>E$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="F12" s="4">
         <f>F$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="G12" s="4">
         <f>G$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="H12" s="4">
         <f>H$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="I12" s="4">
         <f>I$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="J12" s="4">
         <f>J$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="K12" s="4">
         <f>K$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="L12" s="4">
         <f>L$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="M12" s="4">
         <f>M$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="N12" s="4">
         <f>N$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="O12" s="4">
         <f>O$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="P12" s="4">
         <f>P$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="Q12" s="4">
         <f>Q$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="R12" s="4">
         <f>R$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="S12" s="4">
         <f>S$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="T12" s="4">
         <f>T$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="U12" s="4">
         <f>U$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="V12" s="4">
         <f>V$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="W12" s="4">
         <f>W$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="X12" s="4">
         <f>X$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="Y12" s="4">
         <f>Y$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="Z12" s="4">
         <f>Z$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="AA12" s="4">
         <f>AA$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="AB12" s="4">
         <f>AB$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="AC12" s="4">
         <f>AC$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="AD12" s="4">
         <f>AD$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="AE12" s="4">
         <f>AE$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="AF12" s="4">
         <f>AF$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="AG12" s="4">
         <f>AG$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="AH12" s="4">
         <f>AH$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
       <c r="AI12" s="4">
         <f>AI$2*-'data from RPEpUACE'!$B12</f>
-        <v>1986619956.1049852</v>
+        <v>2344471783.8713741</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
